--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6377</v>
+        <v>12.48459999999999</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.28459999999999</v>
+        <v>-11.03229999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.4416</v>
+        <v>12.7355</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.2689</v>
+        <v>-12.332</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -706,13 +706,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0797</v>
+        <v>-12.0677</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>11.99890000000001</v>
+        <v>12.11410000000001</v>
       </c>
     </row>
     <row r="17">
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.15890000000001</v>
+        <v>-13.15930000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -825,7 +825,7 @@
         <v>5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.85860000000001</v>
+        <v>-12.00870000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.529999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.13039999999999</v>
+        <v>-10.90239999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
